--- a/Code/Results/Cases/Case_9_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.83179460523914</v>
+        <v>11.63471933828816</v>
       </c>
       <c r="C2">
-        <v>8.043658337671523</v>
+        <v>8.077869176322411</v>
       </c>
       <c r="D2">
-        <v>5.2082880950376</v>
+        <v>5.258119663808936</v>
       </c>
       <c r="E2">
-        <v>16.32112502831389</v>
+        <v>16.32851418508156</v>
       </c>
       <c r="F2">
-        <v>17.26727967206857</v>
+        <v>16.89858340871011</v>
       </c>
       <c r="G2">
-        <v>21.21054757614994</v>
+        <v>19.91092128138711</v>
       </c>
       <c r="H2">
-        <v>1.811147848103541</v>
+        <v>1.823472594479125</v>
       </c>
       <c r="I2">
-        <v>2.555576968834505</v>
+        <v>2.618242955048084</v>
       </c>
       <c r="J2">
-        <v>8.714074139180569</v>
+        <v>9.055404181885498</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.6742898706564</v>
       </c>
       <c r="M2">
-        <v>10.86625286480871</v>
+        <v>8.155116189719099</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.12582864238965</v>
+        <v>10.87282716631838</v>
       </c>
       <c r="P2">
-        <v>12.38620644932187</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.05340095299517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.14291677577096</v>
+      </c>
+      <c r="R2">
+        <v>12.31540193500361</v>
+      </c>
+      <c r="S2">
+        <v>13.76674858555206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.08684274478199</v>
+        <v>10.94412501899576</v>
       </c>
       <c r="C3">
-        <v>7.808178978745736</v>
+        <v>7.746380266161928</v>
       </c>
       <c r="D3">
-        <v>4.994012376071401</v>
+        <v>5.027319485590122</v>
       </c>
       <c r="E3">
-        <v>15.44993418041747</v>
+        <v>15.46810266697313</v>
       </c>
       <c r="F3">
-        <v>16.93594899958541</v>
+        <v>16.61026316815625</v>
       </c>
       <c r="G3">
-        <v>20.81087595084489</v>
+        <v>19.5980204218763</v>
       </c>
       <c r="H3">
-        <v>1.628007582755611</v>
+        <v>1.645708575014793</v>
       </c>
       <c r="I3">
-        <v>2.514992221604822</v>
+        <v>2.506534983272329</v>
       </c>
       <c r="J3">
-        <v>8.724940193410903</v>
+        <v>9.049185411670162</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.81817027448375</v>
       </c>
       <c r="M3">
-        <v>10.32096038843697</v>
+        <v>8.135987890095036</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.35154321918278</v>
+        <v>10.32970727141588</v>
       </c>
       <c r="P3">
-        <v>12.51380438101685</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.98526166214715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.37017793726902</v>
+      </c>
+      <c r="R3">
+        <v>12.43400555213139</v>
+      </c>
+      <c r="S3">
+        <v>13.72653477005849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.6000863298568</v>
+        <v>10.49299608320158</v>
       </c>
       <c r="C4">
-        <v>7.661403054149198</v>
+        <v>7.539056321069921</v>
       </c>
       <c r="D4">
-        <v>4.857176463527056</v>
+        <v>4.879890128742102</v>
       </c>
       <c r="E4">
-        <v>14.88855904392751</v>
+        <v>14.91400460592712</v>
       </c>
       <c r="F4">
-        <v>16.73630753618009</v>
+        <v>16.43630312666719</v>
       </c>
       <c r="G4">
-        <v>20.57041051717966</v>
+        <v>19.41248793477472</v>
       </c>
       <c r="H4">
-        <v>1.611064655652682</v>
+        <v>1.589444546321524</v>
       </c>
       <c r="I4">
-        <v>2.598415011946723</v>
+        <v>2.51456023065679</v>
       </c>
       <c r="J4">
-        <v>8.733984098614647</v>
+        <v>9.046180336889242</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.90866804820629</v>
       </c>
       <c r="M4">
-        <v>9.969982945369397</v>
+        <v>8.142984311363882</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.85284056716197</v>
+        <v>9.980190581204328</v>
       </c>
       <c r="P4">
-        <v>12.5936620922858</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.94801642167358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.8724845866539</v>
+      </c>
+      <c r="R4">
+        <v>12.50849769827951</v>
+      </c>
+      <c r="S4">
+        <v>13.70551995275886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.38895425524607</v>
+        <v>10.2970503925194</v>
       </c>
       <c r="C5">
-        <v>7.607068255298288</v>
+        <v>7.460520127976715</v>
       </c>
       <c r="D5">
-        <v>4.801365681543753</v>
+        <v>4.8196720517764</v>
       </c>
       <c r="E5">
-        <v>14.65288354428466</v>
+        <v>14.68147767120072</v>
       </c>
       <c r="F5">
-        <v>16.65005374501494</v>
+        <v>16.36035413144091</v>
       </c>
       <c r="G5">
-        <v>20.46321857625824</v>
+        <v>19.32796155740541</v>
       </c>
       <c r="H5">
-        <v>1.661066550494992</v>
+        <v>1.637996686267096</v>
       </c>
       <c r="I5">
-        <v>2.636552493668284</v>
+        <v>2.549409878723234</v>
       </c>
       <c r="J5">
-        <v>8.736629669417253</v>
+        <v>9.043547140928904</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.94187484349925</v>
       </c>
       <c r="M5">
-        <v>9.823114964938858</v>
+        <v>8.148123865944759</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.64395230053228</v>
+        <v>9.833960090671717</v>
       </c>
       <c r="P5">
-        <v>12.62626128116614</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.92979068579516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.66402697843554</v>
+      </c>
+      <c r="R5">
+        <v>12.53901645342982</v>
+      </c>
+      <c r="S5">
+        <v>13.69373780574221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.34685253883621</v>
+        <v>10.25761679460864</v>
       </c>
       <c r="C6">
-        <v>7.605381349087168</v>
+        <v>7.455800398051279</v>
       </c>
       <c r="D6">
-        <v>4.79353903973743</v>
+        <v>4.811126136016833</v>
       </c>
       <c r="E6">
-        <v>14.6129003509455</v>
+        <v>14.64203980759092</v>
       </c>
       <c r="F6">
-        <v>16.62853774101993</v>
+        <v>16.34059698558894</v>
       </c>
       <c r="G6">
-        <v>20.43263395917552</v>
+        <v>19.30107663390144</v>
       </c>
       <c r="H6">
-        <v>1.669613146496311</v>
+        <v>1.646294240413294</v>
       </c>
       <c r="I6">
-        <v>2.646989675055487</v>
+        <v>2.560023608341317</v>
       </c>
       <c r="J6">
-        <v>8.735118141888048</v>
+        <v>9.041152874671209</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.94227892340189</v>
       </c>
       <c r="M6">
-        <v>9.798654498216568</v>
+        <v>8.146297228579112</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.60900663774132</v>
+        <v>9.809615022632199</v>
       </c>
       <c r="P6">
-        <v>12.63129785654288</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.92171670172465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.62915541325135</v>
+      </c>
+      <c r="R6">
+        <v>12.54379573232473</v>
+      </c>
+      <c r="S6">
+        <v>13.6867987497978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.5796555215419</v>
+        <v>10.46997841331665</v>
       </c>
       <c r="C7">
-        <v>7.680641308291976</v>
+        <v>7.557088490649766</v>
       </c>
       <c r="D7">
-        <v>4.860526834504895</v>
+        <v>4.885847254057884</v>
       </c>
       <c r="E7">
-        <v>14.88418923680891</v>
+        <v>14.91070241089607</v>
       </c>
       <c r="F7">
-        <v>16.71544917371407</v>
+        <v>16.40400203478599</v>
       </c>
       <c r="G7">
-        <v>20.5340421401038</v>
+        <v>19.4585297975453</v>
       </c>
       <c r="H7">
-        <v>1.612207102022828</v>
+        <v>1.590869331893892</v>
       </c>
       <c r="I7">
-        <v>2.609627621174563</v>
+        <v>2.528090714559604</v>
       </c>
       <c r="J7">
-        <v>8.7286049229808</v>
+        <v>9.007705559527048</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.89073001553276</v>
       </c>
       <c r="M7">
-        <v>9.96846310048233</v>
+        <v>8.131543256407701</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.85026581762825</v>
+        <v>9.975415156181583</v>
       </c>
       <c r="P7">
-        <v>12.59305784553727</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.93383356816967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.86822548603827</v>
+      </c>
+      <c r="R7">
+        <v>12.50784762334343</v>
+      </c>
+      <c r="S7">
+        <v>13.68349189343397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.5594336269357</v>
+        <v>11.37148521683638</v>
       </c>
       <c r="C8">
-        <v>7.988752543652224</v>
+        <v>7.982181428951534</v>
       </c>
       <c r="D8">
-        <v>5.140731578628479</v>
+        <v>5.193357853979333</v>
       </c>
       <c r="E8">
-        <v>16.02482974829892</v>
+        <v>16.03904730844618</v>
       </c>
       <c r="F8">
-        <v>17.12689871763198</v>
+        <v>16.73529255003318</v>
       </c>
       <c r="G8">
-        <v>21.02669784343334</v>
+        <v>20.02566830823586</v>
       </c>
       <c r="H8">
-        <v>1.748306846423456</v>
+        <v>1.761526871308617</v>
       </c>
       <c r="I8">
-        <v>2.515942118130519</v>
+        <v>2.583178054710444</v>
       </c>
       <c r="J8">
-        <v>8.710209307279456</v>
+        <v>8.938382343992853</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.69286788640693</v>
       </c>
       <c r="M8">
-        <v>10.68221203871968</v>
+        <v>8.120030845911666</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.86402713816384</v>
+        <v>10.67926582592208</v>
       </c>
       <c r="P8">
-        <v>12.42873656075844</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.01070658572271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.87639341537616</v>
+      </c>
+      <c r="R8">
+        <v>12.35462014381893</v>
+      </c>
+      <c r="S8">
+        <v>13.70740124024086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.27633172175875</v>
+        <v>12.96321742778044</v>
       </c>
       <c r="C9">
-        <v>8.53978680213516</v>
+        <v>8.756607610008444</v>
       </c>
       <c r="D9">
-        <v>5.64011837659431</v>
+        <v>5.732737763103523</v>
       </c>
       <c r="E9">
-        <v>18.04959908492764</v>
+        <v>18.04084145999073</v>
       </c>
       <c r="F9">
-        <v>17.99436849582482</v>
+        <v>17.48400212552532</v>
       </c>
       <c r="G9">
-        <v>22.08886291813639</v>
+        <v>20.94374903024462</v>
       </c>
       <c r="H9">
-        <v>2.182684282835658</v>
+        <v>2.182820129600909</v>
       </c>
       <c r="I9">
-        <v>2.814321858593992</v>
+        <v>2.84737495833234</v>
       </c>
       <c r="J9">
-        <v>8.703141269899312</v>
+        <v>8.935910686425894</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.36045070410311</v>
       </c>
       <c r="M9">
-        <v>11.94975360395122</v>
+        <v>8.274578644175341</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.66261711441075</v>
+        <v>11.94028316629296</v>
       </c>
       <c r="P9">
-        <v>12.11962747145193</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.22333881082493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.67058091233677</v>
+      </c>
+      <c r="R9">
+        <v>12.06909594900278</v>
+      </c>
+      <c r="S9">
+        <v>13.83843890559463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.39232299711392</v>
+        <v>13.98784475940101</v>
       </c>
       <c r="C10">
-        <v>8.939139890261306</v>
+        <v>9.286506943469398</v>
       </c>
       <c r="D10">
-        <v>5.998882044868161</v>
+        <v>6.130493181737597</v>
       </c>
       <c r="E10">
-        <v>18.86210379632449</v>
+        <v>18.84415897608972</v>
       </c>
       <c r="F10">
-        <v>18.54961571619143</v>
+        <v>17.8953160769375</v>
       </c>
       <c r="G10">
-        <v>22.72007342197049</v>
+        <v>21.93122935696066</v>
       </c>
       <c r="H10">
-        <v>2.461315869644852</v>
+        <v>2.451075689905243</v>
       </c>
       <c r="I10">
-        <v>3.020952310177017</v>
+        <v>3.029731350314454</v>
       </c>
       <c r="J10">
-        <v>8.683522068354637</v>
+        <v>8.736544259082947</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.07538013901385</v>
       </c>
       <c r="M10">
-        <v>12.7994007170889</v>
+        <v>8.408039303805975</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.58908985840013</v>
+        <v>12.77006415053133</v>
       </c>
       <c r="P10">
-        <v>11.898614907658</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.33410487310467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.58622481371975</v>
+      </c>
+      <c r="R10">
+        <v>11.86945206617528</v>
+      </c>
+      <c r="S10">
+        <v>13.84559866536524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.87220707661989</v>
+        <v>14.44094940576725</v>
       </c>
       <c r="C11">
-        <v>9.133290395243595</v>
+        <v>9.46048887233038</v>
       </c>
       <c r="D11">
-        <v>6.316234797251517</v>
+        <v>6.480764026990066</v>
       </c>
       <c r="E11">
-        <v>14.68193542213515</v>
+        <v>14.6658239152729</v>
       </c>
       <c r="F11">
-        <v>18.04228741668903</v>
+        <v>17.27209982886841</v>
       </c>
       <c r="G11">
-        <v>21.66147464473504</v>
+        <v>21.86187567795149</v>
       </c>
       <c r="H11">
-        <v>3.148699450526077</v>
+        <v>3.137192831657328</v>
       </c>
       <c r="I11">
-        <v>3.087208463512935</v>
+        <v>3.08761878219633</v>
       </c>
       <c r="J11">
-        <v>8.456204037826506</v>
+        <v>8.212827611984656</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.68813566137675</v>
       </c>
       <c r="M11">
-        <v>13.18139391578865</v>
+        <v>8.111431816403986</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.63497206923121</v>
+        <v>13.11675016938487</v>
       </c>
       <c r="P11">
-        <v>11.81132263623453</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.82480974963404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.61505586820911</v>
+      </c>
+      <c r="R11">
+        <v>11.81823743432275</v>
+      </c>
+      <c r="S11">
+        <v>13.26390347630903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.07341739922963</v>
+        <v>14.64628117247822</v>
       </c>
       <c r="C12">
-        <v>9.18920995577378</v>
+        <v>9.479276530784999</v>
       </c>
       <c r="D12">
-        <v>6.50755090499489</v>
+        <v>6.683950166389935</v>
       </c>
       <c r="E12">
-        <v>11.19815576267993</v>
+        <v>11.17629029489586</v>
       </c>
       <c r="F12">
-        <v>17.51069553585118</v>
+        <v>16.71220053848078</v>
       </c>
       <c r="G12">
-        <v>20.66442812148523</v>
+        <v>21.3479234091859</v>
       </c>
       <c r="H12">
-        <v>4.304242845174499</v>
+        <v>4.29538504581232</v>
       </c>
       <c r="I12">
-        <v>3.099278792232091</v>
+        <v>3.096698085046266</v>
       </c>
       <c r="J12">
-        <v>8.273251413620619</v>
+        <v>7.954031490447355</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.45988345983196</v>
       </c>
       <c r="M12">
-        <v>13.33151472432452</v>
+        <v>7.857399551735073</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.78797862296372</v>
+        <v>13.25019166205402</v>
       </c>
       <c r="P12">
-        <v>11.80040563669922</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.38418013936581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.76085037447885</v>
+      </c>
+      <c r="R12">
+        <v>11.83339363927854</v>
+      </c>
+      <c r="S12">
+        <v>12.81529492399362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.05866575883233</v>
+        <v>14.6660709099622</v>
       </c>
       <c r="C13">
-        <v>9.170533269692633</v>
+        <v>9.419166690001987</v>
       </c>
       <c r="D13">
-        <v>6.622716529638629</v>
+        <v>6.789273221740542</v>
       </c>
       <c r="E13">
-        <v>8.253160935056346</v>
+        <v>8.217355031672627</v>
       </c>
       <c r="F13">
-        <v>16.89031341776343</v>
+        <v>16.15632479898748</v>
       </c>
       <c r="G13">
-        <v>19.58893254492033</v>
+        <v>20.19726767016827</v>
       </c>
       <c r="H13">
-        <v>5.57845123993509</v>
+        <v>5.572553003928084</v>
       </c>
       <c r="I13">
-        <v>3.074760322743142</v>
+        <v>3.075357893079868</v>
       </c>
       <c r="J13">
-        <v>8.104883645337351</v>
+        <v>7.882320932736498</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.31714543852154</v>
       </c>
       <c r="M13">
-        <v>13.317053518193</v>
+        <v>7.6152450060564</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.86639783424995</v>
+        <v>13.23879796541712</v>
       </c>
       <c r="P13">
-        <v>11.84283340142912</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.94657320410483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.84215596170574</v>
+      </c>
+      <c r="R13">
+        <v>11.89003760988613</v>
+      </c>
+      <c r="S13">
+        <v>12.43624084963067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.94663468238398</v>
+        <v>14.5922797509164</v>
       </c>
       <c r="C14">
-        <v>9.129511414556838</v>
+        <v>9.34710939762857</v>
       </c>
       <c r="D14">
-        <v>6.671160202357744</v>
+        <v>6.820851707512102</v>
       </c>
       <c r="E14">
-        <v>6.888322107693639</v>
+        <v>6.842995010571578</v>
       </c>
       <c r="F14">
-        <v>16.40711090543914</v>
+        <v>15.75873685604047</v>
       </c>
       <c r="G14">
-        <v>18.78752050681586</v>
+        <v>19.1023366645171</v>
       </c>
       <c r="H14">
-        <v>6.508323586880599</v>
+        <v>6.504236838331362</v>
       </c>
       <c r="I14">
-        <v>3.042395829689488</v>
+        <v>3.048289982455525</v>
       </c>
       <c r="J14">
-        <v>7.992872878117215</v>
+        <v>7.899691884564547</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.24878294893237</v>
       </c>
       <c r="M14">
-        <v>13.2325871098837</v>
+        <v>7.450817012491252</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.475820402576701</v>
+        <v>13.1652193937188</v>
       </c>
       <c r="P14">
-        <v>11.89712893714587</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.63897882822219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.457994954840665</v>
+      </c>
+      <c r="R14">
+        <v>11.94689131791341</v>
+      </c>
+      <c r="S14">
+        <v>12.19678668952973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.86710176448326</v>
+        <v>14.5283567424648</v>
       </c>
       <c r="C15">
-        <v>9.110603229170671</v>
+        <v>9.31982893063164</v>
       </c>
       <c r="D15">
-        <v>6.668040911850362</v>
+        <v>6.809312888319556</v>
       </c>
       <c r="E15">
-        <v>6.705270252961274</v>
+        <v>6.660263133483101</v>
       </c>
       <c r="F15">
-        <v>16.26502600091727</v>
+        <v>15.65479552064259</v>
       </c>
       <c r="G15">
-        <v>18.56606868799362</v>
+        <v>18.70877838436122</v>
       </c>
       <c r="H15">
-        <v>6.721190319570419</v>
+        <v>6.71767171873349</v>
       </c>
       <c r="I15">
-        <v>3.02766399439163</v>
+        <v>3.036683611468399</v>
       </c>
       <c r="J15">
-        <v>7.967571278649451</v>
+        <v>7.933050134436441</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.24355035852206</v>
       </c>
       <c r="M15">
-        <v>13.17644031386078</v>
+        <v>7.410505833601559</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.118440747423826</v>
+        <v>13.11553790194575</v>
       </c>
       <c r="P15">
-        <v>11.91978578226224</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.56152548337412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.103993526541853</v>
+      </c>
+      <c r="R15">
+        <v>11.96723205699353</v>
+      </c>
+      <c r="S15">
+        <v>12.14736072438516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.40692652824541</v>
+        <v>14.12264768546106</v>
       </c>
       <c r="C16">
-        <v>8.957412685606295</v>
+        <v>9.149556081427827</v>
       </c>
       <c r="D16">
-        <v>6.504965573671971</v>
+        <v>6.609884648585503</v>
       </c>
       <c r="E16">
-        <v>6.725009568832211</v>
+        <v>6.696095703660319</v>
       </c>
       <c r="F16">
-        <v>16.11814694347001</v>
+        <v>15.65109054892139</v>
       </c>
       <c r="G16">
-        <v>18.45787857244426</v>
+        <v>17.78992992687262</v>
       </c>
       <c r="H16">
-        <v>6.459714829485979</v>
+        <v>6.45807558669854</v>
       </c>
       <c r="I16">
-        <v>2.947192668365669</v>
+        <v>2.969402453853299</v>
       </c>
       <c r="J16">
-        <v>8.00636844329221</v>
+        <v>8.215309627527242</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.3772350561206</v>
       </c>
       <c r="M16">
-        <v>12.83029357557601</v>
+        <v>7.441556627667686</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8.987550304579505</v>
+        <v>12.80126720175408</v>
       </c>
       <c r="P16">
-        <v>11.99528496955929</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.58989897674195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.988090844298691</v>
+      </c>
+      <c r="R16">
+        <v>12.01847316947147</v>
+      </c>
+      <c r="S16">
+        <v>12.26996175700355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.10735849800639</v>
+        <v>13.84050821750647</v>
       </c>
       <c r="C17">
-        <v>8.861672732778322</v>
+        <v>9.052469638071955</v>
       </c>
       <c r="D17">
-        <v>6.350877097336703</v>
+        <v>6.441010589945162</v>
       </c>
       <c r="E17">
-        <v>7.291433713146152</v>
+        <v>7.271329556201532</v>
       </c>
       <c r="F17">
-        <v>16.26929079259162</v>
+        <v>15.85043684040391</v>
       </c>
       <c r="G17">
-        <v>18.80996353296155</v>
+        <v>17.79259391662569</v>
       </c>
       <c r="H17">
-        <v>5.71715318777154</v>
+        <v>5.716351016103058</v>
       </c>
       <c r="I17">
-        <v>2.902524100094529</v>
+        <v>2.931698656491406</v>
       </c>
       <c r="J17">
-        <v>8.095729778936644</v>
+        <v>8.407913788218741</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.52133699819256</v>
       </c>
       <c r="M17">
-        <v>12.60626552270455</v>
+        <v>7.544564290540766</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.651544393614483</v>
+        <v>12.5917262165525</v>
       </c>
       <c r="P17">
-        <v>12.02561532928433</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.77600543812774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.658545892020816</v>
+      </c>
+      <c r="R17">
+        <v>12.03310740521647</v>
+      </c>
+      <c r="S17">
+        <v>12.48335220693295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.93165497812312</v>
+        <v>13.65659854060491</v>
       </c>
       <c r="C18">
-        <v>8.790740537077754</v>
+        <v>8.998932469726578</v>
       </c>
       <c r="D18">
-        <v>6.186059590014242</v>
+        <v>6.273174013206854</v>
       </c>
       <c r="E18">
-        <v>9.236183007936107</v>
+        <v>9.219422413948884</v>
       </c>
       <c r="F18">
-        <v>16.70331513250865</v>
+        <v>16.2802951547433</v>
       </c>
       <c r="G18">
-        <v>19.61787248453505</v>
+        <v>18.42703246618593</v>
       </c>
       <c r="H18">
-        <v>4.51890845665793</v>
+        <v>4.518331804907527</v>
       </c>
       <c r="I18">
-        <v>2.881801982438609</v>
+        <v>2.91252054937651</v>
       </c>
       <c r="J18">
-        <v>8.241839610720824</v>
+        <v>8.58661002542652</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.70803668115189</v>
       </c>
       <c r="M18">
-        <v>12.4666691174484</v>
+        <v>7.732780320704317</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.10257082054837</v>
+        <v>12.45877179478228</v>
       </c>
       <c r="P18">
-        <v>12.02646330101403</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.12726806132128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.11219538113882</v>
+      </c>
+      <c r="R18">
+        <v>12.02052225521132</v>
+      </c>
+      <c r="S18">
+        <v>12.82444973493827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.84587344422078</v>
+        <v>13.54519270376344</v>
       </c>
       <c r="C19">
-        <v>8.784351422510415</v>
+        <v>9.029916903546937</v>
       </c>
       <c r="D19">
-        <v>6.034766260253908</v>
+        <v>6.126087261672515</v>
       </c>
       <c r="E19">
-        <v>12.64004555183064</v>
+        <v>12.62348699887429</v>
       </c>
       <c r="F19">
-        <v>17.29281509940066</v>
+        <v>16.83434068207287</v>
       </c>
       <c r="G19">
-        <v>20.66953980197722</v>
+        <v>19.38741165625444</v>
       </c>
       <c r="H19">
-        <v>3.209075842653732</v>
+        <v>3.207903300476434</v>
       </c>
       <c r="I19">
-        <v>2.89294013219631</v>
+        <v>2.923149703251514</v>
       </c>
       <c r="J19">
-        <v>8.414196794353694</v>
+        <v>8.752689947737075</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.9053136246514</v>
       </c>
       <c r="M19">
-        <v>12.40909173268199</v>
+        <v>7.960694808299785</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.08319461030606</v>
+        <v>12.40339565707372</v>
       </c>
       <c r="P19">
-        <v>12.01439711252903</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.56293840833661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.09331440239695</v>
+      </c>
+      <c r="R19">
+        <v>11.99587155288441</v>
+      </c>
+      <c r="S19">
+        <v>13.22762378427681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.06611819523859</v>
+        <v>13.69425722569195</v>
       </c>
       <c r="C20">
-        <v>8.892430108769858</v>
+        <v>9.224308660138956</v>
       </c>
       <c r="D20">
-        <v>5.918606257974715</v>
+        <v>6.032231239801288</v>
       </c>
       <c r="E20">
-        <v>18.62588480389412</v>
+        <v>18.60723602884904</v>
       </c>
       <c r="F20">
-        <v>18.34378526432416</v>
+        <v>17.76667256335025</v>
       </c>
       <c r="G20">
-        <v>22.44785676421703</v>
+        <v>21.29048276353552</v>
       </c>
       <c r="H20">
-        <v>2.385908767364335</v>
+        <v>2.379294313941583</v>
       </c>
       <c r="I20">
-        <v>2.977159804806772</v>
+        <v>2.996895749016618</v>
       </c>
       <c r="J20">
-        <v>8.670321592683214</v>
+        <v>8.882163034971342</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.12949242822872</v>
       </c>
       <c r="M20">
-        <v>12.58333850460317</v>
+        <v>8.344067137451177</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.33961400495387</v>
+        <v>12.56875346889772</v>
       </c>
       <c r="P20">
-        <v>11.95463323724348</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.259154687088</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.34437416263558</v>
+      </c>
+      <c r="R20">
+        <v>11.92095303863313</v>
+      </c>
+      <c r="S20">
+        <v>13.82771142531092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.88558138638023</v>
+        <v>14.39667352963055</v>
       </c>
       <c r="C21">
-        <v>9.183773600671334</v>
+        <v>9.561188237112479</v>
       </c>
       <c r="D21">
-        <v>6.15422713523775</v>
+        <v>6.339546909774866</v>
       </c>
       <c r="E21">
-        <v>20.04937026039095</v>
+        <v>20.04094002856859</v>
       </c>
       <c r="F21">
-        <v>18.916879566083</v>
+        <v>18.01965934740747</v>
       </c>
       <c r="G21">
-        <v>23.19335256116612</v>
+        <v>23.74489028546326</v>
       </c>
       <c r="H21">
-        <v>2.627678697016584</v>
+        <v>2.608596753041092</v>
       </c>
       <c r="I21">
-        <v>3.136346329912434</v>
+        <v>3.130656515432632</v>
       </c>
       <c r="J21">
-        <v>8.701011969554342</v>
+        <v>8.242475566832885</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.90592993894013</v>
       </c>
       <c r="M21">
-        <v>13.2058610308718</v>
+        <v>8.447036390140028</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.44141491024595</v>
+        <v>13.12763987734079</v>
       </c>
       <c r="P21">
-        <v>11.78812970982175</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.45848842032324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.41335500846757</v>
+      </c>
+      <c r="R21">
+        <v>11.7697565988012</v>
+      </c>
+      <c r="S21">
+        <v>13.78881540374566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.41330185191936</v>
+        <v>14.85019949695966</v>
       </c>
       <c r="C22">
-        <v>9.347943177276081</v>
+        <v>9.745359976975159</v>
       </c>
       <c r="D22">
-        <v>6.307783342366583</v>
+        <v>6.541084447702854</v>
       </c>
       <c r="E22">
-        <v>20.67619389240683</v>
+        <v>20.6762561287638</v>
       </c>
       <c r="F22">
-        <v>19.2706399722964</v>
+        <v>18.15372712476265</v>
       </c>
       <c r="G22">
-        <v>23.64397596309692</v>
+        <v>25.4276253823943</v>
       </c>
       <c r="H22">
-        <v>2.771296529586125</v>
+        <v>2.744335799981984</v>
       </c>
       <c r="I22">
-        <v>3.23287383811595</v>
+        <v>3.209849530202107</v>
       </c>
       <c r="J22">
-        <v>8.717913006441808</v>
+        <v>7.856633386916996</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.75812947696594</v>
       </c>
       <c r="M22">
-        <v>13.59732567633626</v>
+        <v>8.5155731581956</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.99636248301112</v>
+        <v>13.47582135765805</v>
       </c>
       <c r="P22">
-        <v>11.68065422481658</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.57818686736261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.94595903853266</v>
+      </c>
+      <c r="R22">
+        <v>11.67448280302721</v>
+      </c>
+      <c r="S22">
+        <v>13.74168632286261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.14916617828053</v>
+        <v>14.63115027696697</v>
       </c>
       <c r="C23">
-        <v>9.239532566626025</v>
+        <v>9.631827672834408</v>
       </c>
       <c r="D23">
-        <v>6.222300540168259</v>
+        <v>6.424272387428105</v>
       </c>
       <c r="E23">
-        <v>20.34491351927336</v>
+        <v>20.33795047133381</v>
       </c>
       <c r="F23">
-        <v>19.10207296066688</v>
+        <v>18.12987087432162</v>
       </c>
       <c r="G23">
-        <v>23.4393242509257</v>
+        <v>24.36223341551071</v>
       </c>
       <c r="H23">
-        <v>2.695369751558332</v>
+        <v>2.673088242796573</v>
       </c>
       <c r="I23">
-        <v>3.177729425985525</v>
+        <v>3.163277416808764</v>
       </c>
       <c r="J23">
-        <v>8.714825309364855</v>
+        <v>8.119634793807935</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.85491452688921</v>
       </c>
       <c r="M23">
-        <v>13.38938798665927</v>
+        <v>8.504982070900612</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.70204516010653</v>
+        <v>13.29748444675422</v>
       </c>
       <c r="P23">
-        <v>11.73838204062485</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.52931682690733</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.66686728995515</v>
+      </c>
+      <c r="R23">
+        <v>11.72442382658966</v>
+      </c>
+      <c r="S23">
+        <v>13.80225402937823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.07499679704949</v>
+        <v>13.70098293600875</v>
       </c>
       <c r="C24">
-        <v>8.855812900378092</v>
+        <v>9.186798320029581</v>
       </c>
       <c r="D24">
-        <v>5.893929003227974</v>
+        <v>6.007346896086267</v>
       </c>
       <c r="E24">
-        <v>19.0385837561432</v>
+        <v>19.01979418039936</v>
       </c>
       <c r="F24">
-        <v>18.43417974641053</v>
+        <v>17.85493695801154</v>
       </c>
       <c r="G24">
-        <v>22.61277978743851</v>
+        <v>21.43568868678153</v>
       </c>
       <c r="H24">
-        <v>2.400541349438528</v>
+        <v>2.393875473002784</v>
       </c>
       <c r="I24">
-        <v>2.970985150636259</v>
+        <v>2.988545581764718</v>
       </c>
       <c r="J24">
-        <v>8.698787925202506</v>
+        <v>8.913350989517735</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.1720263595857</v>
       </c>
       <c r="M24">
-        <v>12.57106775187603</v>
+        <v>8.391196231752614</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.54266290449596</v>
+        <v>12.55704721069655</v>
       </c>
       <c r="P24">
-        <v>11.95849545045283</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.32982054054915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.54767119866918</v>
+      </c>
+      <c r="R24">
+        <v>11.92203175168929</v>
+      </c>
+      <c r="S24">
+        <v>13.89562752721898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.80998877786173</v>
+        <v>12.53300579390671</v>
       </c>
       <c r="C25">
-        <v>8.427032994874876</v>
+        <v>8.594414895197787</v>
       </c>
       <c r="D25">
-        <v>5.516539077507066</v>
+        <v>5.595487273503561</v>
       </c>
       <c r="E25">
-        <v>17.52344449688821</v>
+        <v>17.51917461520524</v>
       </c>
       <c r="F25">
-        <v>17.72399456010643</v>
+        <v>17.26231795957417</v>
       </c>
       <c r="G25">
-        <v>21.73900849373772</v>
+        <v>20.51841068319537</v>
       </c>
       <c r="H25">
-        <v>2.06793832614332</v>
+        <v>2.071956543882578</v>
       </c>
       <c r="I25">
-        <v>2.740624643268549</v>
+        <v>2.784962007844996</v>
       </c>
       <c r="J25">
-        <v>8.693271244899787</v>
+        <v>8.972236443283061</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.43443703908931</v>
       </c>
       <c r="M25">
-        <v>11.62202794873009</v>
+        <v>8.20223268255797</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.19712794315159</v>
+        <v>11.61837028379108</v>
       </c>
       <c r="P25">
-        <v>12.20085458392932</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.13722729513792</v>
+        <v>15.20833969954521</v>
+      </c>
+      <c r="R25">
+        <v>12.14456451178807</v>
+      </c>
+      <c r="S25">
+        <v>13.78712594754924</v>
       </c>
     </row>
   </sheetData>
